--- a/Main/Final_Prediction.xlsx
+++ b/Main/Final_Prediction.xlsx
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
